--- a/01.管理/WBS.xlsx
+++ b/01.管理/WBS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25108"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1205" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A5B63B6-9412-4937-B14A-2BD47EDF673D}"/>
+  <xr:revisionPtr revIDLastSave="1208" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49B26820-1680-462F-A0C9-A21540D32B35}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>作業</t>
   </si>
@@ -73,7 +73,7 @@
     <t>曽我部</t>
   </si>
   <si>
-    <t>外部設計</t>
+    <t>基本・詳細設計</t>
   </si>
   <si>
     <t>　画面定義書作成</t>
@@ -103,34 +103,31 @@
     <t>レイアウト作成</t>
   </si>
   <si>
+    <t>ホテル情報取得処理</t>
+  </si>
+  <si>
+    <t>【MMA】ホテル情報取得処理_BL仕様書_Ver.1.0.xlsx</t>
+  </si>
+  <si>
+    <t>ホテル情報マップ表示処理</t>
+  </si>
+  <si>
+    <t>【MMA】ホテル情報マップ表示処理_BL仕様書_Ver.1.0.xlsx</t>
+  </si>
+  <si>
+    <t>ホテル情報登録処理</t>
+  </si>
+  <si>
+    <t>【MMA】ホテル情報登録処理_BL仕様書_Ver.1.0.xlsx</t>
+  </si>
+  <si>
+    <t>DB仕様書</t>
+  </si>
+  <si>
+    <t>【MMA】ホテル情報テーブル（hotelInfo）_DB仕様書_Ver.1.0.xlsx</t>
+  </si>
+  <si>
     <t>　設計書確認・指摘取り込み</t>
-  </si>
-  <si>
-    <t>内部設計</t>
-  </si>
-  <si>
-    <t>ホテル情報取得処理</t>
-  </si>
-  <si>
-    <t>【MMA】ホテル情報取得処理_BL仕様書_Ver.1.0.xlsx</t>
-  </si>
-  <si>
-    <t>ホテル情報マップ表示処理</t>
-  </si>
-  <si>
-    <t>【MMA】ホテル情報マップ表示処理_BL仕様書_Ver.1.0.xlsx</t>
-  </si>
-  <si>
-    <t>ホテル情報登録処理</t>
-  </si>
-  <si>
-    <t>【MMA】ホテル情報登録処理_BL仕様書_Ver.1.0.xlsx</t>
-  </si>
-  <si>
-    <t>DB仕様書</t>
-  </si>
-  <si>
-    <t>【MMA】ホテル情報テーブル（hotelInfo）_DB仕様書_Ver.1.0.xlsx</t>
   </si>
   <si>
     <t>開発</t>
@@ -531,21 +528,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B565508-1682-4CFC-A7D0-3E0FE297793E}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1">
@@ -789,205 +786,226 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2">
-        <v>44805</v>
+        <v>44758</v>
       </c>
       <c r="E17" s="2">
-        <v>44834</v>
+        <v>44772</v>
       </c>
       <c r="F17" s="2">
+        <v>44762</v>
+      </c>
+      <c r="G17" s="2">
+        <v>44790</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44774</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44788</v>
+      </c>
+      <c r="F18" s="2">
+        <v>44789</v>
+      </c>
+      <c r="G18" s="2">
         <v>44814</v>
       </c>
-      <c r="G17" s="2">
-        <v>44834</v>
-      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44789</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F19" s="2">
+        <v>44815</v>
+      </c>
+      <c r="G19" s="2">
+        <v>44827</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44805</v>
+      </c>
+      <c r="E20" s="2">
+        <v>44814</v>
+      </c>
+      <c r="F20" s="2">
+        <v>44805</v>
+      </c>
+      <c r="G20" s="2">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44815</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F21" s="2">
+        <v>44805</v>
+      </c>
+      <c r="G21" s="2">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44849</v>
+      </c>
+      <c r="F25" s="2">
+        <v>44846</v>
+      </c>
+      <c r="G25" s="2">
+        <v>44862</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44850</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44875</v>
+      </c>
+      <c r="F26" s="2">
+        <v>44866</v>
+      </c>
+      <c r="G26" s="2">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2">
-        <v>44758</v>
-      </c>
-      <c r="E20" s="2">
-        <v>44772</v>
-      </c>
-      <c r="F20" s="2">
-        <v>44762</v>
-      </c>
-      <c r="G20" s="2">
-        <v>44790</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2">
-        <v>44774</v>
-      </c>
-      <c r="E21" s="2">
-        <v>44788</v>
-      </c>
-      <c r="F21" s="2">
-        <v>44789</v>
-      </c>
-      <c r="G21" s="2">
-        <v>44814</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2">
-        <v>44789</v>
-      </c>
-      <c r="E22" s="2">
-        <v>44804</v>
-      </c>
-      <c r="F22" s="2">
-        <v>44815</v>
-      </c>
-      <c r="G22" s="2">
-        <v>44827</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2">
-        <v>44805</v>
-      </c>
-      <c r="E23" s="2">
-        <v>44814</v>
-      </c>
-      <c r="F23" s="2">
-        <v>44805</v>
-      </c>
-      <c r="G23" s="2">
-        <v>44829</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2">
-        <v>44815</v>
-      </c>
-      <c r="E24" s="2">
-        <v>44834</v>
-      </c>
-      <c r="F24" s="2">
-        <v>44805</v>
-      </c>
-      <c r="G24" s="2">
-        <v>44834</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44876</v>
+      </c>
+      <c r="E27" s="2">
+        <v>44895</v>
+      </c>
+      <c r="F27" s="2">
+        <v>44568</v>
+      </c>
+      <c r="G27" s="2">
+        <v>44581</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2">
-        <v>44835</v>
-      </c>
-      <c r="E28" s="2">
-        <v>44849</v>
-      </c>
-      <c r="F28" s="2">
-        <v>44846</v>
-      </c>
-      <c r="G28" s="2">
-        <v>44862</v>
-      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2">
-        <v>44850</v>
+        <v>44835</v>
       </c>
       <c r="E29" s="2">
-        <v>44875</v>
+        <v>44895</v>
       </c>
       <c r="F29" s="2">
-        <v>44866</v>
+        <v>44839</v>
       </c>
       <c r="G29" s="2">
-        <v>44581</v>
+        <v>44913</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -998,21 +1016,21 @@
         <v>12</v>
       </c>
       <c r="D30" s="2">
-        <v>44876</v>
+        <v>44896</v>
       </c>
       <c r="E30" s="2">
-        <v>44895</v>
+        <v>44920</v>
       </c>
       <c r="F30" s="2">
-        <v>44568</v>
+        <v>44582</v>
       </c>
       <c r="G30" s="2">
-        <v>44581</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1021,159 +1039,110 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="2">
-        <v>44835</v>
+        <v>44896</v>
       </c>
       <c r="E32" s="2">
-        <v>44895</v>
+        <v>44920</v>
       </c>
       <c r="F32" s="2">
-        <v>44839</v>
+        <v>44915</v>
       </c>
       <c r="G32" s="2">
-        <v>44913</v>
+        <v>44581</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="4" t="s">
-        <v>31</v>
+      <c r="A33" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2">
-        <v>44896</v>
+        <v>44921</v>
       </c>
       <c r="E33" s="2">
-        <v>44920</v>
+        <v>44926</v>
       </c>
       <c r="F33" s="2">
-        <v>44582</v>
+        <v>44603</v>
       </c>
       <c r="G33" s="2">
-        <v>44602</v>
+        <v>44604</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A34" s="3"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="2">
-        <v>44896</v>
-      </c>
-      <c r="E35" s="2">
-        <v>44920</v>
-      </c>
-      <c r="F35" s="2">
-        <v>44915</v>
-      </c>
-      <c r="G35" s="2">
-        <v>44581</v>
-      </c>
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="2">
-        <v>44921</v>
+        <v>44572</v>
       </c>
       <c r="E36" s="2">
-        <v>44926</v>
+        <v>44592</v>
       </c>
       <c r="F36" s="2">
-        <v>44603</v>
+        <v>44616</v>
       </c>
       <c r="G36" s="2">
-        <v>44604</v>
+        <v>44617</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="3"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="A37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2">
+        <v>44593</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F37" s="2">
+        <v>44621</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="A38" s="3"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="3" t="s">
-        <v>43</v>
+      <c r="A39" t="s">
+        <v>44</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2">
-        <v>44572</v>
+        <v>44646</v>
       </c>
       <c r="E39" s="2">
-        <v>44592</v>
-      </c>
-      <c r="F39" s="2">
-        <v>44616</v>
-      </c>
-      <c r="G39" s="2">
-        <v>44617</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="2">
-        <v>44593</v>
-      </c>
-      <c r="E40" s="2">
-        <v>44620</v>
-      </c>
-      <c r="F40" s="2">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2">
-        <v>44646</v>
-      </c>
-      <c r="E42" s="2">
         <v>44646</v>
       </c>
     </row>

--- a/01.管理/WBS.xlsx
+++ b/01.管理/WBS.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25122"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1208" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49B26820-1680-462F-A0C9-A21540D32B35}"/>
+  <xr:revisionPtr revIDLastSave="1211" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06AD2310-D62C-4BF5-AE00-ACB3163F99B9}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -530,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B565508-1682-4CFC-A7D0-3E0FE297793E}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1128,6 +1129,9 @@
       <c r="F37" s="2">
         <v>44621</v>
       </c>
+      <c r="G37" s="2">
+        <v>44640</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3"/>
@@ -1144,6 +1148,12 @@
       </c>
       <c r="E39" s="2">
         <v>44646</v>
+      </c>
+      <c r="F39" s="2">
+        <v>44648</v>
+      </c>
+      <c r="G39" s="2">
+        <v>44648</v>
       </c>
     </row>
   </sheetData>

--- a/01.管理/WBS.xlsx
+++ b/01.管理/WBS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25122"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1211" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06AD2310-D62C-4BF5-AE00-ACB3163F99B9}"/>
+  <xr:revisionPtr revIDLastSave="1213" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92870E2D-BD9D-473A-BCF5-AB780806F4C8}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1150,10 +1150,10 @@
         <v>44646</v>
       </c>
       <c r="F39" s="2">
-        <v>44648</v>
+        <v>44647</v>
       </c>
       <c r="G39" s="2">
-        <v>44648</v>
+        <v>44647</v>
       </c>
     </row>
   </sheetData>
